--- a/Output/Model performance/results_BOW_TF_IDF.xlsx
+++ b/Output/Model performance/results_BOW_TF_IDF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="48">
   <si>
     <t>vectorizer</t>
   </si>
@@ -38,6 +38,96 @@
   </si>
   <si>
     <t>f1</t>
+  </si>
+  <si>
+    <t>bow_log_w</t>
+  </si>
+  <si>
+    <t>bow_DT_w</t>
+  </si>
+  <si>
+    <t>bow_svm_w</t>
+  </si>
+  <si>
+    <t>bow_rf_w</t>
+  </si>
+  <si>
+    <t>bow_ada_w</t>
+  </si>
+  <si>
+    <t>bow_log_u</t>
+  </si>
+  <si>
+    <t>bow_DT_u</t>
+  </si>
+  <si>
+    <t>bow_svm_u</t>
+  </si>
+  <si>
+    <t>bow_rf_u</t>
+  </si>
+  <si>
+    <t>bow_ada_u</t>
+  </si>
+  <si>
+    <t>bow_log_o</t>
+  </si>
+  <si>
+    <t>bow_DT_o</t>
+  </si>
+  <si>
+    <t>bow_svm_o</t>
+  </si>
+  <si>
+    <t>bow_rf_o</t>
+  </si>
+  <si>
+    <t>bow_ada_o</t>
+  </si>
+  <si>
+    <t>tf_idf_log_w</t>
+  </si>
+  <si>
+    <t>tf_idf_DT_w</t>
+  </si>
+  <si>
+    <t>tf_idf_svm_w</t>
+  </si>
+  <si>
+    <t>tf_idf_rf_w</t>
+  </si>
+  <si>
+    <t>tf_idf_ada_w</t>
+  </si>
+  <si>
+    <t>tf_idf_log_u</t>
+  </si>
+  <si>
+    <t>tf_idf_DT_u</t>
+  </si>
+  <si>
+    <t>tf_idf_svm_u</t>
+  </si>
+  <si>
+    <t>tf_idf_rf_u</t>
+  </si>
+  <si>
+    <t>tf_idf_ada_u</t>
+  </si>
+  <si>
+    <t>tf_idf_log_o</t>
+  </si>
+  <si>
+    <t>tf_idf_DT_o</t>
+  </si>
+  <si>
+    <t>tf_idf_svm_o</t>
+  </si>
+  <si>
+    <t>tf_idf_rf_o</t>
+  </si>
+  <si>
+    <t>tf_idf_ada_o</t>
   </si>
   <si>
     <t>BOW</t>
@@ -425,815 +515,905 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>0.9232192414431082</v>
+      </c>
+      <c r="G2">
+        <v>0.5589560028145996</v>
+      </c>
+      <c r="H2">
+        <v>0.4381128510794063</v>
+      </c>
+      <c r="I2">
+        <v>0.4871981421292809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>0.9025901942645699</v>
+      </c>
+      <c r="G3">
+        <v>0.4533246650709703</v>
+      </c>
+      <c r="H3">
+        <v>0.3936014046553041</v>
+      </c>
+      <c r="I3">
+        <v>0.408581857899067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>0.9263644773358002</v>
+      </c>
+      <c r="G4">
+        <v>0.6215670875215069</v>
+      </c>
+      <c r="H4">
+        <v>0.4060381656508441</v>
+      </c>
+      <c r="I4">
+        <v>0.4776640793595455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>0.9232192414431082</v>
-      </c>
-      <c r="F2">
-        <v>0.5589560028145996</v>
-      </c>
-      <c r="G2">
-        <v>0.4381128510794063</v>
-      </c>
-      <c r="H2">
-        <v>0.4871981421292809</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>0.9200740055504163</v>
+      </c>
+      <c r="G5">
+        <v>0.5920034944306335</v>
+      </c>
+      <c r="H5">
+        <v>0.3725945173425261</v>
+      </c>
+      <c r="I5">
+        <v>0.4295054956266829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>0.9025901942645699</v>
-      </c>
-      <c r="F3">
-        <v>0.4533246650709703</v>
-      </c>
-      <c r="G3">
-        <v>0.3936014046553041</v>
-      </c>
-      <c r="H3">
-        <v>0.408581857899067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>0.9111933395004626</v>
+      </c>
+      <c r="G6">
+        <v>0.4918370318639279</v>
+      </c>
+      <c r="H6">
+        <v>0.3863687941725493</v>
+      </c>
+      <c r="I6">
+        <v>0.4202500535067584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7">
+        <v>0.8245143385753931</v>
+      </c>
+      <c r="G7">
+        <v>0.3413049140000241</v>
+      </c>
+      <c r="H7">
+        <v>0.645851081594748</v>
+      </c>
+      <c r="I7">
+        <v>0.4264248050659516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8">
+        <v>0.7437557816836263</v>
+      </c>
+      <c r="G8">
+        <v>0.248561651065113</v>
+      </c>
+      <c r="H8">
+        <v>0.5700659790261482</v>
+      </c>
+      <c r="I8">
+        <v>0.3219298341062208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9">
+        <v>0.7833487511563367</v>
+      </c>
+      <c r="G9">
+        <v>0.2823836266535931</v>
+      </c>
+      <c r="H9">
+        <v>0.6318134775519841</v>
+      </c>
+      <c r="I9">
+        <v>0.3704127093582322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <v>0.7636447733580018</v>
+      </c>
+      <c r="G10">
+        <v>0.2989263764171041</v>
+      </c>
+      <c r="H10">
+        <v>0.602280184365023</v>
+      </c>
+      <c r="I10">
+        <v>0.369810698479394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>0.7644773358001851</v>
+      </c>
+      <c r="G11">
+        <v>0.2678143830095414</v>
+      </c>
+      <c r="H11">
+        <v>0.575333984851561</v>
+      </c>
+      <c r="I11">
+        <v>0.3378438597959555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12">
+        <v>0.8987974098057354</v>
+      </c>
+      <c r="G12">
+        <v>0.4262220021554542</v>
+      </c>
+      <c r="H12">
+        <v>0.502174227397175</v>
+      </c>
+      <c r="I12">
+        <v>0.4574421289405042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13">
+        <v>0.8285846438482887</v>
+      </c>
+      <c r="G13">
+        <v>0.2827693653901786</v>
+      </c>
+      <c r="H13">
+        <v>0.5066448460924021</v>
+      </c>
+      <c r="I13">
+        <v>0.3448949994353979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14">
+        <v>0.9037927844588344</v>
+      </c>
+      <c r="G14">
+        <v>0.4642727638525187</v>
+      </c>
+      <c r="H14">
+        <v>0.2628433091396327</v>
+      </c>
+      <c r="I14">
+        <v>0.3196662818592427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15">
+        <v>0.8582793709528215</v>
+      </c>
+      <c r="G15">
+        <v>0.3259078164489295</v>
+      </c>
+      <c r="H15">
+        <v>0.5654835403725307</v>
+      </c>
+      <c r="I15">
+        <v>0.3987871612718438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>0.8361702127659575</v>
+      </c>
+      <c r="G16">
+        <v>0.2872533802956758</v>
+      </c>
+      <c r="H16">
+        <v>0.5057134419312658</v>
+      </c>
+      <c r="I16">
+        <v>0.3508386111670087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17">
         <v>0.9263644773358002</v>
       </c>
-      <c r="F4">
-        <v>0.6215670875215069</v>
-      </c>
-      <c r="G4">
-        <v>0.4060381656508441</v>
-      </c>
-      <c r="H4">
-        <v>0.4776640793595455</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>0.9200740055504163</v>
-      </c>
-      <c r="F5">
-        <v>0.5920034944306335</v>
-      </c>
-      <c r="G5">
-        <v>0.3725945173425261</v>
-      </c>
-      <c r="H5">
-        <v>0.4295054956266829</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0.9111933395004626</v>
-      </c>
-      <c r="F6">
-        <v>0.4918370318639279</v>
-      </c>
-      <c r="G6">
-        <v>0.3863687941725493</v>
-      </c>
-      <c r="H6">
-        <v>0.4202500535067584</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>0.8245143385753931</v>
-      </c>
-      <c r="F7">
-        <v>0.3413049140000241</v>
-      </c>
-      <c r="G7">
-        <v>0.645851081594748</v>
-      </c>
-      <c r="H7">
-        <v>0.4264248050659516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>0.7437557816836263</v>
-      </c>
-      <c r="F8">
-        <v>0.248561651065113</v>
-      </c>
-      <c r="G8">
-        <v>0.5700659790261482</v>
-      </c>
-      <c r="H8">
-        <v>0.3219298341062208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>0.7833487511563367</v>
-      </c>
-      <c r="F9">
-        <v>0.2823836266535931</v>
-      </c>
-      <c r="G9">
-        <v>0.6318134775519841</v>
-      </c>
-      <c r="H9">
-        <v>0.3704127093582322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10">
-        <v>0.7636447733580018</v>
-      </c>
-      <c r="F10">
-        <v>0.2989263764171041</v>
-      </c>
-      <c r="G10">
-        <v>0.602280184365023</v>
-      </c>
-      <c r="H10">
-        <v>0.369810698479394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>0.7644773358001851</v>
-      </c>
-      <c r="F11">
-        <v>0.2678143830095414</v>
-      </c>
-      <c r="G11">
-        <v>0.575333984851561</v>
-      </c>
-      <c r="H11">
-        <v>0.3378438597959555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>0.8987974098057354</v>
-      </c>
-      <c r="F12">
-        <v>0.4262220021554542</v>
-      </c>
-      <c r="G12">
-        <v>0.502174227397175</v>
-      </c>
-      <c r="H12">
-        <v>0.4574421289405042</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>0.8285846438482887</v>
-      </c>
-      <c r="F13">
-        <v>0.2827693653901786</v>
-      </c>
-      <c r="G13">
-        <v>0.5066448460924021</v>
-      </c>
-      <c r="H13">
-        <v>0.3448949994353979</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>0.9037927844588344</v>
-      </c>
-      <c r="F14">
-        <v>0.4642727638525187</v>
-      </c>
-      <c r="G14">
-        <v>0.2628433091396327</v>
-      </c>
-      <c r="H14">
-        <v>0.3196662818592427</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15">
-        <v>0.8582793709528215</v>
-      </c>
-      <c r="F15">
-        <v>0.3259078164489295</v>
-      </c>
-      <c r="G15">
-        <v>0.5654835403725307</v>
-      </c>
-      <c r="H15">
-        <v>0.3987871612718438</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>0.8361702127659575</v>
-      </c>
-      <c r="F16">
-        <v>0.2872533802956758</v>
-      </c>
-      <c r="G16">
-        <v>0.5057134419312658</v>
-      </c>
-      <c r="H16">
-        <v>0.3508386111670087</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>0.9263644773358002</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.6261144380566138</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.4007968307776149</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.4748262549325458</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>9</v>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18">
         <v>0.9039777983348751</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.4082213471276386</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.3530666548321017</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.3758216314647573</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>9</v>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19">
         <v>0.9172062904717854</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.5241767091536085</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.4651147477832183</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.4885982763066989</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>9</v>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20">
         <v>0.922109158186864</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.5941723204403763</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.3090823153537811</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.3822610848537351</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>9</v>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21">
         <v>0.9158186864014801</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.5199105410613855</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.3506215688158092</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.4086127501327437</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>9</v>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22">
         <v>0.8382053654024052</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.359021429236367</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.664077319795809</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.447991403655775</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>9</v>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23">
         <v>0.7222016651248844</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.2419016624629312</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.5654342691600868</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.3146848631338553</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>9</v>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24">
         <v>0.8258094357076781</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.3296615427249561</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.6408421029299711</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.4198317772851381</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>9</v>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25">
         <v>0.7823311748381129</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.3033620912459641</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.6038478549006615</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.3804847026940853</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>9</v>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26">
         <v>0.7588344125809435</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.2563959925303927</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.5647934627134259</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.3306605109069941</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>9</v>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27">
         <v>0.911840888066605</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.4993713416613448</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.4684554021954014</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.4762032582270314</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>9</v>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28">
         <v>0.8837187789084181</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.3899022398074447</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.4683663522911084</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.4221311265989882</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>9</v>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29">
         <v>0.9264569842738205</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.7008780650286371</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.3508099430545669</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.4387506884050082</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>9</v>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30">
         <v>0.9172987974098057</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.5747239434389267</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.4478499693638378</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.4791748460312967</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
-        <v>9</v>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31">
         <v>0.8985198889916743</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.4230357570126714</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.4564793496181442</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.4344433781094445</v>
       </c>
     </row>
